--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -141,13 +141,13 @@
     <t>MAE</t>
   </si>
   <si>
-    <t>23.32455178050373 minutes</t>
-  </si>
-  <si>
-    <t>45.420538645801784 minutes</t>
-  </si>
-  <si>
-    <t>55.73636459747125 minutes</t>
+    <t>21.483643103207733 minutes</t>
+  </si>
+  <si>
+    <t>56.442180914467045 minutes</t>
+  </si>
+  <si>
+    <t>46.0065882169876 minutes</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.1773170209496198E-2</v>
+        <v>23.820351144118401</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.0278503730843198</v>
+        <v>3.2237748386666301</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>7.45234536763195</v>
+        <v>6.6816628458331504</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>12.0015356950975</v>
+        <v>12.000813112441699</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>16.035660802585799</v>
+        <v>16.048261491145698</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1291,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>22.609216701954001</v>
+        <v>20.024526022711001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>23.974008671546802</v>
+        <v>22.984331176639799</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>4.0050011264926404</v>
+        <v>4.4543237880990203</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1315,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.0552165657126302</v>
+        <v>7.7452371423607103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>11.999727149812401</v>
+        <v>12.103861344713</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>15.998430239811</v>
+        <v>15.9235492802663</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>21.303167349772</v>
+        <v>20.0438492894164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.1716920714511301</v>
+        <v>5.0096582556633802E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2.3955747539679</v>
+        <v>4.0491959159576698</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1394,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>8.4085680527540898</v>
+        <v>7.7746027621121501</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>11.0097727874406</v>
+        <v>9.9969164442008296</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1410,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13.1651107467779</v>
+        <v>12.5694196871681</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1418,7 +1418,7 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>15.8881746499148</v>
+        <v>16.381063767744301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1426,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>20.245093040640398</v>
+        <v>18.7247695942552</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>22.7912010159849</v>
+        <v>21.704469792708899</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2.0329439306600201</v>
+        <v>1.41375921683799</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>6.4945144717260304</v>
+        <v>4.3409272400829702</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1458,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>10.0143802235956</v>
+        <v>9.2688550257292803</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.1514173843536</v>
+        <v>11.5445742653834</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>14.129883176090599</v>
+        <v>13.512988937853001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>15.4903582787374</v>
+        <v>15.0337625417753</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1490,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>19.769980841669501</v>
+        <v>19.8845267891307</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>22.702336772765399</v>
+        <v>22.325681819933799</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>12.671664568192799</v>
+        <v>12.6724444066781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1.27444147058229</v>
+        <v>0.81961304932294599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12.1167596347365</v>
+        <v>12.258561443843099</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>1.6528918891252999</v>
+        <v>1.31648688513893</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
